--- a/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA9B42A-CC25-4FF4-85F2-1B7EFDA2BDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1262,7 +1263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1499,7 +1500,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1590,6 +1591,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1625,6 +1643,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1800,11 +1835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1960,314 +1995,312 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="E12" s="18">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="E13" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="E14" s="18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E16" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="E17" s="18">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E19" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="E20" s="18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E22" s="18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E23" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="E24" s="18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E25" s="18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -2277,10 +2310,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>3</v>
@@ -2296,16 +2329,16 @@
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -2315,16 +2348,16 @@
         <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -2334,35 +2367,37 @@
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>302</v>
+        <v>157</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E30" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="19" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -2372,16 +2407,16 @@
         <v>23</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E32" s="18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -2391,16 +2426,16 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E33" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -2410,77 +2445,79 @@
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E35" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>27</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E36" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="19" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>28</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="E37" s="18">
-        <v>5</v>
-      </c>
-      <c r="F37" s="18">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2488,16 +2525,16 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E38" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -2507,16 +2544,16 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E39" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -2526,16 +2563,16 @@
         <v>31</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -2545,16 +2582,16 @@
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E41" s="18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -2564,16 +2601,16 @@
         <v>33</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E42" s="18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -2583,16 +2620,16 @@
         <v>34</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E43" s="18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -2602,16 +2639,16 @@
         <v>35</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="18">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -2621,16 +2658,16 @@
         <v>36</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -2640,16 +2677,16 @@
         <v>37</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E46" s="18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -2659,16 +2696,16 @@
         <v>38</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E47" s="18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -2678,16 +2715,16 @@
         <v>39</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E48" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -2697,16 +2734,16 @@
         <v>40</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E49" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -2716,16 +2753,16 @@
         <v>41</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -2735,18 +2772,20 @@
         <v>42</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="E51" s="18">
-        <v>8</v>
-      </c>
-      <c r="F51" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="F51" s="18">
+        <v>3</v>
+      </c>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2754,16 +2793,16 @@
         <v>43</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="E52" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -2773,16 +2812,16 @@
         <v>44</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -2792,16 +2831,16 @@
         <v>45</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E54" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -2811,16 +2850,16 @@
         <v>46</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E55" s="18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -2830,16 +2869,16 @@
         <v>47</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E56" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -2849,37 +2888,35 @@
         <v>48</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E57" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F57" s="18"/>
-      <c r="G57" s="18" t="s">
-        <v>295</v>
-      </c>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>49</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -2889,16 +2926,16 @@
         <v>50</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -2908,16 +2945,16 @@
         <v>51</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="18">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -2927,16 +2964,16 @@
         <v>52</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E61" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -2946,37 +2983,35 @@
         <v>53</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E62" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F62" s="18"/>
-      <c r="G62" s="18" t="s">
-        <v>151</v>
-      </c>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>54</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E63" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
@@ -2986,16 +3021,16 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -3005,16 +3040,16 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E65" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -3024,16 +3059,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E66" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -3043,16 +3078,16 @@
         <v>58</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -3062,16 +3097,16 @@
         <v>59</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E68" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -3081,16 +3116,16 @@
         <v>60</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -3100,16 +3135,16 @@
         <v>61</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -3119,56 +3154,56 @@
         <v>62</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
+      <c r="G71" s="18" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>63</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="18">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F72" s="18"/>
-      <c r="G72" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>64</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
@@ -3178,16 +3213,16 @@
         <v>65</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>282</v>
+        <v>3</v>
       </c>
       <c r="E74" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -3197,16 +3232,16 @@
         <v>66</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E75" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
@@ -3216,16 +3251,16 @@
         <v>67</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E76" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -3235,16 +3270,16 @@
         <v>68</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E77" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
@@ -3254,16 +3289,16 @@
         <v>69</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E78" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -3273,16 +3308,16 @@
         <v>70</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
@@ -3292,16 +3327,16 @@
         <v>71</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
@@ -3311,16 +3346,16 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E81" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
@@ -3330,16 +3365,16 @@
         <v>73</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E82" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -3349,16 +3384,16 @@
         <v>74</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -3368,16 +3403,16 @@
         <v>75</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
@@ -3387,35 +3422,37 @@
         <v>76</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
+      <c r="G85" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>77</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
@@ -3425,16 +3462,16 @@
         <v>78</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="E87" s="18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
@@ -3444,16 +3481,16 @@
         <v>79</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E88" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
@@ -3463,16 +3500,16 @@
         <v>80</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="E89" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
@@ -3482,16 +3519,16 @@
         <v>81</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E90" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
@@ -3501,16 +3538,16 @@
         <v>82</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E91" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
@@ -3520,37 +3557,35 @@
         <v>83</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="E92" s="18">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F92" s="18"/>
-      <c r="G92" s="18" t="s">
-        <v>294</v>
-      </c>
+      <c r="G92" s="18"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>84</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E93" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
@@ -3560,16 +3595,16 @@
         <v>85</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E94" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
@@ -3579,16 +3614,16 @@
         <v>86</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E95" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
@@ -3598,16 +3633,16 @@
         <v>87</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E96" s="18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
@@ -3617,37 +3652,35 @@
         <v>88</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E97" s="18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="19" t="s">
-        <v>278</v>
-      </c>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>89</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="E98" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
@@ -3657,16 +3690,16 @@
         <v>90</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="E99" s="18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
@@ -3676,16 +3709,16 @@
         <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
@@ -3695,16 +3728,16 @@
         <v>92</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="E101" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
@@ -3714,16 +3747,16 @@
         <v>93</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="E102" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
@@ -3733,16 +3766,16 @@
         <v>94</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
@@ -3752,16 +3785,16 @@
         <v>95</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="E104" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
@@ -3771,16 +3804,16 @@
         <v>96</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E105" s="18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
@@ -3790,16 +3823,16 @@
         <v>97</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
@@ -3809,16 +3842,16 @@
         <v>98</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="E107" s="18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
@@ -3828,16 +3861,16 @@
         <v>99</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E108" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
@@ -3847,19 +3880,21 @@
         <v>100</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E109" s="18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
+      <c r="G109" s="19" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
@@ -4544,7 +4579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">

--- a/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA9B42A-CC25-4FF4-85F2-1B7EFDA2BDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -424,9 +423,6 @@
     <t>離職/停約日</t>
   </si>
   <si>
-    <t>單位簡稱</t>
-  </si>
-  <si>
     <t>區部代號</t>
   </si>
   <si>
@@ -581,10 +577,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CenterCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AdministratId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -885,19 +877,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CenterShortName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CenterCodeName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CenterCode1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CenterCode2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1259,11 +1243,27 @@
     <t>AgentId =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>單位簡稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterShortName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterCode2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1500,7 +1500,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1591,23 +1591,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1643,23 +1626,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1835,11 +1801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1838,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -1887,7 +1853,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -1924,7 +1890,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1981,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>26</v>
@@ -2000,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>73</v>
@@ -2013,7 +1979,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2021,20 +1987,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>102</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E12" s="18">
         <v>40</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2042,13 +2008,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E13" s="18">
         <v>10</v>
@@ -2061,13 +2027,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E14" s="18">
         <v>20</v>
@@ -2080,10 +2046,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -2099,13 +2065,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E16" s="18">
         <v>10</v>
@@ -2118,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E17" s="18">
         <v>20</v>
@@ -2137,10 +2103,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
@@ -2156,13 +2122,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E19" s="18">
         <v>10</v>
@@ -2175,13 +2141,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E20" s="18">
         <v>20</v>
@@ -2194,10 +2160,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>3</v>
@@ -2213,13 +2179,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E22" s="18">
         <v>20</v>
@@ -2232,10 +2198,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>3</v>
@@ -2251,13 +2217,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
@@ -2270,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>20</v>
@@ -2291,10 +2257,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -2310,7 +2276,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>27</v>
@@ -2329,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>28</v>
@@ -2348,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>29</v>
@@ -2367,20 +2333,20 @@
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E30" s="18">
         <v>8</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2388,7 +2354,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>31</v>
@@ -2407,7 +2373,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>32</v>
@@ -2426,13 +2392,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E33" s="18">
         <v>8</v>
@@ -2445,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>34</v>
@@ -2464,7 +2430,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>21</v>
@@ -2477,7 +2443,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2485,20 +2451,20 @@
         <v>27</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E36" s="18">
         <v>8</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2506,13 +2472,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E37" s="18">
         <v>8</v>
@@ -2525,7 +2491,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>36</v>
@@ -2544,13 +2510,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E39" s="18">
         <v>8</v>
@@ -2563,7 +2529,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>38</v>
@@ -2582,7 +2548,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>39</v>
@@ -2601,7 +2567,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>40</v>
@@ -2620,7 +2586,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>41</v>
@@ -2639,7 +2605,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>42</v>
@@ -2658,7 +2624,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>43</v>
@@ -2677,13 +2643,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E46" s="18">
         <v>8</v>
@@ -2696,7 +2662,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>45</v>
@@ -2715,7 +2681,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>46</v>
@@ -2734,13 +2700,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" s="18">
         <v>10</v>
@@ -2753,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>48</v>
@@ -2772,13 +2738,13 @@
         <v>42</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E51" s="18">
         <v>5</v>
@@ -2793,13 +2759,13 @@
         <v>43</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" s="18">
         <v>5</v>
@@ -2812,7 +2778,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>51</v>
@@ -2831,7 +2797,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>52</v>
@@ -2850,13 +2816,13 @@
         <v>46</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E55" s="18">
         <v>8</v>
@@ -2869,13 +2835,13 @@
         <v>47</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E56" s="18">
         <v>8</v>
@@ -2888,13 +2854,13 @@
         <v>48</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E57" s="18">
         <v>8</v>
@@ -2907,7 +2873,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>56</v>
@@ -2926,7 +2892,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>57</v>
@@ -2945,7 +2911,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>58</v>
@@ -2964,13 +2930,13 @@
         <v>52</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E61" s="18">
         <v>8</v>
@@ -2983,13 +2949,13 @@
         <v>53</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" s="18">
         <v>5</v>
@@ -3002,13 +2968,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E63" s="18">
         <v>5</v>
@@ -3021,7 +2987,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>62</v>
@@ -3040,13 +3006,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E65" s="18">
         <v>8</v>
@@ -3059,13 +3025,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E66" s="18">
         <v>8</v>
@@ -3078,7 +3044,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>65</v>
@@ -3097,13 +3063,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E68" s="18">
         <v>8</v>
@@ -3116,7 +3082,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>67</v>
@@ -3135,10 +3101,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>3</v>
@@ -3154,7 +3120,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>68</v>
@@ -3167,7 +3133,7 @@
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3175,7 +3141,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>69</v>
@@ -3194,7 +3160,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>70</v>
@@ -3213,7 +3179,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>71</v>
@@ -3232,7 +3198,7 @@
         <v>66</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>72</v>
@@ -3251,7 +3217,7 @@
         <v>67</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>74</v>
@@ -3270,7 +3236,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>75</v>
@@ -3289,7 +3255,7 @@
         <v>69</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>76</v>
@@ -3308,7 +3274,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>77</v>
@@ -3327,7 +3293,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>78</v>
@@ -3346,7 +3312,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>79</v>
@@ -3365,7 +3331,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>80</v>
@@ -3384,7 +3350,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>81</v>
@@ -3403,7 +3369,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>82</v>
@@ -3422,10 +3388,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>3</v>
@@ -3443,7 +3409,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>83</v>
@@ -3462,13 +3428,13 @@
         <v>78</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E87" s="18">
         <v>100</v>
@@ -3481,13 +3447,13 @@
         <v>79</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E88" s="18">
         <v>8</v>
@@ -3500,13 +3466,13 @@
         <v>80</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E89" s="18">
         <v>8</v>
@@ -3519,13 +3485,13 @@
         <v>81</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E90" s="18">
         <v>8</v>
@@ -3538,13 +3504,13 @@
         <v>82</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E91" s="18">
         <v>8</v>
@@ -3557,7 +3523,7 @@
         <v>83</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>89</v>
@@ -3576,7 +3542,7 @@
         <v>84</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>90</v>
@@ -3595,13 +3561,13 @@
         <v>85</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>91</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E94" s="18">
         <v>8</v>
@@ -3614,13 +3580,13 @@
         <v>86</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E95" s="18">
         <v>5</v>
@@ -3633,7 +3599,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>93</v>
@@ -3652,7 +3618,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>94</v>
@@ -3671,7 +3637,7 @@
         <v>89</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>95</v>
@@ -3690,7 +3656,7 @@
         <v>90</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>96</v>
@@ -3709,7 +3675,7 @@
         <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>97</v>
@@ -3728,7 +3694,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>98</v>
@@ -3747,13 +3713,13 @@
         <v>93</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>99</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E102" s="18">
         <v>10</v>
@@ -3766,7 +3732,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>100</v>
@@ -3785,7 +3751,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>101</v>
@@ -3804,13 +3770,13 @@
         <v>96</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>103</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E105" s="18">
         <v>8</v>
@@ -3823,7 +3789,7 @@
         <v>97</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>104</v>
@@ -3842,7 +3808,7 @@
         <v>98</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>105</v>
@@ -3861,13 +3827,13 @@
         <v>99</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E108" s="18">
         <v>8</v>
@@ -3880,20 +3846,20 @@
         <v>100</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E109" s="18">
         <v>8</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3901,10 +3867,10 @@
         <v>101</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>3</v>
@@ -3914,7 +3880,7 @@
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3922,20 +3888,20 @@
         <v>102</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3943,10 +3909,10 @@
         <v>103</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>3</v>
@@ -3962,13 +3928,13 @@
         <v>104</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E113" s="18">
         <v>5</v>
@@ -3981,13 +3947,13 @@
         <v>105</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E114" s="18">
         <v>5</v>
@@ -4000,13 +3966,13 @@
         <v>106</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E115" s="18">
         <v>5</v>
@@ -4019,10 +3985,10 @@
         <v>107</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>3</v>
@@ -4038,10 +4004,10 @@
         <v>108</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>3</v>
@@ -4057,10 +4023,10 @@
         <v>109</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>3</v>
@@ -4076,13 +4042,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E119" s="18">
         <v>8</v>
@@ -4095,13 +4061,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E120" s="18">
         <v>8</v>
@@ -4114,13 +4080,13 @@
         <v>112</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E121" s="18">
         <v>20</v>
@@ -4133,13 +4099,13 @@
         <v>113</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E122" s="18">
         <v>8</v>
@@ -4152,13 +4118,13 @@
         <v>114</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E123" s="18">
         <v>8</v>
@@ -4171,13 +4137,13 @@
         <v>115</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E124" s="18">
         <v>8</v>
@@ -4190,13 +4156,13 @@
         <v>116</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E125" s="18">
         <v>8</v>
@@ -4209,13 +4175,13 @@
         <v>117</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E126" s="18">
         <v>8</v>
@@ -4228,13 +4194,13 @@
         <v>118</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E127" s="18">
         <v>8</v>
@@ -4247,13 +4213,13 @@
         <v>119</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E128" s="18">
         <v>20</v>
@@ -4266,10 +4232,10 @@
         <v>120</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>3</v>
@@ -4285,10 +4251,10 @@
         <v>121</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>3</v>
@@ -4304,10 +4270,10 @@
         <v>122</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>3</v>
@@ -4323,10 +4289,10 @@
         <v>123</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>3</v>
@@ -4342,10 +4308,10 @@
         <v>124</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>3</v>
@@ -4361,13 +4327,13 @@
         <v>125</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E134" s="18">
         <v>80</v>
@@ -4380,10 +4346,10 @@
         <v>126</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>3</v>
@@ -4399,10 +4365,10 @@
         <v>127</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>3</v>
@@ -4418,10 +4384,10 @@
         <v>128</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>3</v>
@@ -4437,13 +4403,13 @@
         <v>129</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E138" s="18">
         <v>8</v>
@@ -4456,13 +4422,13 @@
         <v>130</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E139" s="18">
         <v>50</v>
@@ -4475,10 +4441,10 @@
         <v>131</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>3</v>
@@ -4494,13 +4460,13 @@
         <v>132</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
@@ -4511,10 +4477,10 @@
         <v>133</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>3</v>
@@ -4530,13 +4496,13 @@
         <v>134</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -4547,10 +4513,10 @@
         <v>135</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>3</v>
@@ -4579,7 +4545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
@@ -4608,109 +4574,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="327">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1232,14 +1232,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EmployeeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fullname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AgentId =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1257,6 +1249,10 @@
   </si>
   <si>
     <t>CenterCode2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullname</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1805,7 +1801,7 @@
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1853,7 +1849,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -1987,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>102</v>
@@ -2008,10 +2004,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>277</v>
@@ -2103,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>111</v>
@@ -2354,7 +2350,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>31</v>
@@ -4599,7 +4595,7 @@
         <v>295</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="328">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1253,6 +1253,10 @@
   </si>
   <si>
     <t>Fullname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1801,7 +1805,7 @@
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1849,7 +1853,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>

--- a/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -315,9 +315,6 @@
     <t>收費員指示碼</t>
   </si>
   <si>
-    <t>制度別</t>
-  </si>
-  <si>
     <t>電腦編號</t>
   </si>
   <si>
@@ -1257,6 +1254,10 @@
   </si>
   <si>
     <t>EmployeeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1804,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1838,7 +1839,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -1853,7 +1854,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -1890,7 +1891,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1947,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>26</v>
@@ -1966,10 +1967,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>3</v>
@@ -1979,7 +1980,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1987,20 +1988,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" s="18">
         <v>40</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2008,13 +2009,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="18">
         <v>10</v>
@@ -2027,13 +2028,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="18">
         <v>20</v>
@@ -2046,10 +2047,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -2065,13 +2066,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" s="18">
         <v>10</v>
@@ -2084,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" s="18">
         <v>20</v>
@@ -2103,10 +2104,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
@@ -2122,13 +2123,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="18">
         <v>10</v>
@@ -2141,13 +2142,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="18">
         <v>20</v>
@@ -2160,10 +2161,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>3</v>
@@ -2179,13 +2180,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" s="18">
         <v>20</v>
@@ -2198,10 +2199,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>3</v>
@@ -2217,13 +2218,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
@@ -2236,7 +2237,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>20</v>
@@ -2257,10 +2258,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>3</v>
@@ -2276,7 +2277,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>27</v>
@@ -2295,7 +2296,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>28</v>
@@ -2314,7 +2315,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>29</v>
@@ -2333,20 +2334,20 @@
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E30" s="18">
         <v>8</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2354,7 +2355,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>31</v>
@@ -2373,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>32</v>
@@ -2392,13 +2393,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E33" s="18">
         <v>8</v>
@@ -2411,7 +2412,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>34</v>
@@ -2430,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>21</v>
@@ -2443,7 +2444,7 @@
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2451,20 +2452,20 @@
         <v>27</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="D36" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E36" s="18">
         <v>8</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2472,13 +2473,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E37" s="18">
         <v>8</v>
@@ -2491,7 +2492,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>36</v>
@@ -2510,13 +2511,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E39" s="18">
         <v>8</v>
@@ -2529,7 +2530,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>38</v>
@@ -2548,7 +2549,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>39</v>
@@ -2567,7 +2568,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>40</v>
@@ -2586,7 +2587,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>41</v>
@@ -2605,7 +2606,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>42</v>
@@ -2624,7 +2625,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>43</v>
@@ -2643,13 +2644,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E46" s="18">
         <v>8</v>
@@ -2662,7 +2663,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>45</v>
@@ -2681,7 +2682,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>46</v>
@@ -2700,13 +2701,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E49" s="18">
         <v>10</v>
@@ -2719,7 +2720,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>48</v>
@@ -2738,13 +2739,13 @@
         <v>42</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E51" s="18">
         <v>5</v>
@@ -2759,13 +2760,13 @@
         <v>43</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" s="18">
         <v>5</v>
@@ -2778,7 +2779,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>51</v>
@@ -2797,7 +2798,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>52</v>
@@ -2816,13 +2817,13 @@
         <v>46</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E55" s="18">
         <v>8</v>
@@ -2835,13 +2836,13 @@
         <v>47</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E56" s="18">
         <v>8</v>
@@ -2854,13 +2855,13 @@
         <v>48</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E57" s="18">
         <v>8</v>
@@ -2873,7 +2874,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>56</v>
@@ -2892,7 +2893,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>57</v>
@@ -2911,7 +2912,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>58</v>
@@ -2930,13 +2931,13 @@
         <v>52</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E61" s="18">
         <v>8</v>
@@ -2949,13 +2950,13 @@
         <v>53</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E62" s="18">
         <v>5</v>
@@ -2968,13 +2969,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E63" s="18">
         <v>5</v>
@@ -2987,7 +2988,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>62</v>
@@ -3006,13 +3007,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E65" s="18">
         <v>8</v>
@@ -3025,13 +3026,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E66" s="18">
         <v>8</v>
@@ -3044,7 +3045,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>65</v>
@@ -3063,13 +3064,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E68" s="18">
         <v>8</v>
@@ -3082,7 +3083,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>67</v>
@@ -3101,10 +3102,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>3</v>
@@ -3120,7 +3121,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>68</v>
@@ -3133,7 +3134,7 @@
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3141,7 +3142,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>69</v>
@@ -3160,7 +3161,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>70</v>
@@ -3179,7 +3180,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>71</v>
@@ -3198,10 +3199,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>3</v>
@@ -3217,10 +3218,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>3</v>
@@ -3236,10 +3237,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>3</v>
@@ -3255,10 +3256,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>3</v>
@@ -3274,10 +3275,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>3</v>
@@ -3293,10 +3294,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>3</v>
@@ -3312,10 +3313,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>3</v>
@@ -3331,10 +3332,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>3</v>
@@ -3350,10 +3351,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>3</v>
@@ -3369,10 +3370,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>3</v>
@@ -3388,10 +3389,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>3</v>
@@ -3409,10 +3410,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>3</v>
@@ -3428,13 +3429,13 @@
         <v>78</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E87" s="18">
         <v>100</v>
@@ -3447,13 +3448,13 @@
         <v>79</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E88" s="18">
         <v>8</v>
@@ -3466,13 +3467,13 @@
         <v>80</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E89" s="18">
         <v>8</v>
@@ -3485,13 +3486,13 @@
         <v>81</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E90" s="18">
         <v>8</v>
@@ -3504,13 +3505,13 @@
         <v>82</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E91" s="18">
         <v>8</v>
@@ -3523,10 +3524,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>3</v>
@@ -3542,10 +3543,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>3</v>
@@ -3561,13 +3562,13 @@
         <v>85</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E94" s="18">
         <v>8</v>
@@ -3580,13 +3581,13 @@
         <v>86</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E95" s="18">
         <v>5</v>
@@ -3599,10 +3600,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>3</v>
@@ -3618,10 +3619,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>3</v>
@@ -3637,10 +3638,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>3</v>
@@ -3656,10 +3657,10 @@
         <v>90</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>3</v>
@@ -3675,10 +3676,10 @@
         <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>3</v>
@@ -3694,10 +3695,10 @@
         <v>92</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>3</v>
@@ -3713,13 +3714,13 @@
         <v>93</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E102" s="18">
         <v>10</v>
@@ -3732,10 +3733,10 @@
         <v>94</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>3</v>
@@ -3751,10 +3752,10 @@
         <v>95</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>3</v>
@@ -3770,13 +3771,13 @@
         <v>96</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E105" s="18">
         <v>8</v>
@@ -3789,10 +3790,10 @@
         <v>97</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>3</v>
@@ -3808,10 +3809,10 @@
         <v>98</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>3</v>
@@ -3827,13 +3828,13 @@
         <v>99</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E108" s="18">
         <v>8</v>
@@ -3846,20 +3847,20 @@
         <v>100</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E109" s="18">
         <v>8</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3867,10 +3868,10 @@
         <v>101</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>3</v>
@@ -3880,7 +3881,7 @@
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3888,20 +3889,20 @@
         <v>102</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3909,10 +3910,10 @@
         <v>103</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>3</v>
@@ -3928,13 +3929,13 @@
         <v>104</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E113" s="18">
         <v>5</v>
@@ -3947,13 +3948,13 @@
         <v>105</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E114" s="18">
         <v>5</v>
@@ -3966,13 +3967,13 @@
         <v>106</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E115" s="18">
         <v>5</v>
@@ -3985,10 +3986,10 @@
         <v>107</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>3</v>
@@ -4004,10 +4005,10 @@
         <v>108</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>3</v>
@@ -4023,10 +4024,10 @@
         <v>109</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>3</v>
@@ -4042,13 +4043,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E119" s="18">
         <v>8</v>
@@ -4061,13 +4062,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E120" s="18">
         <v>8</v>
@@ -4080,13 +4081,13 @@
         <v>112</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E121" s="18">
         <v>20</v>
@@ -4099,13 +4100,13 @@
         <v>113</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E122" s="18">
         <v>8</v>
@@ -4118,13 +4119,13 @@
         <v>114</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E123" s="18">
         <v>8</v>
@@ -4137,13 +4138,13 @@
         <v>115</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E124" s="18">
         <v>8</v>
@@ -4156,13 +4157,13 @@
         <v>116</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E125" s="18">
         <v>8</v>
@@ -4175,13 +4176,13 @@
         <v>117</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E126" s="18">
         <v>8</v>
@@ -4194,13 +4195,13 @@
         <v>118</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E127" s="18">
         <v>8</v>
@@ -4213,13 +4214,13 @@
         <v>119</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E128" s="18">
         <v>20</v>
@@ -4232,10 +4233,10 @@
         <v>120</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>3</v>
@@ -4251,10 +4252,10 @@
         <v>121</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>3</v>
@@ -4270,10 +4271,10 @@
         <v>122</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>3</v>
@@ -4289,10 +4290,10 @@
         <v>123</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>3</v>
@@ -4308,10 +4309,10 @@
         <v>124</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>3</v>
@@ -4327,13 +4328,13 @@
         <v>125</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E134" s="18">
         <v>80</v>
@@ -4346,10 +4347,10 @@
         <v>126</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>3</v>
@@ -4365,10 +4366,10 @@
         <v>127</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>3</v>
@@ -4384,10 +4385,10 @@
         <v>128</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>3</v>
@@ -4403,13 +4404,13 @@
         <v>129</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E138" s="18">
         <v>8</v>
@@ -4422,13 +4423,13 @@
         <v>130</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E139" s="18">
         <v>50</v>
@@ -4441,10 +4442,10 @@
         <v>131</v>
       </c>
       <c r="B140" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C140" s="18" t="s">
         <v>301</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>302</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>3</v>
@@ -4460,13 +4461,13 @@
         <v>132</v>
       </c>
       <c r="B141" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="D141" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
@@ -4477,10 +4478,10 @@
         <v>133</v>
       </c>
       <c r="B142" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>283</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>3</v>
@@ -4496,13 +4497,13 @@
         <v>134</v>
       </c>
       <c r="B143" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>285</v>
-      </c>
       <c r="D143" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -4513,10 +4514,10 @@
         <v>135</v>
       </c>
       <c r="B144" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>3</v>
@@ -4574,109 +4575,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
